--- a/_Out/Server/NFDataCfg/Excel_Struct/Guild.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Guild.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsheng.huang\Desktop\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Struct\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NF\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Struct\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -654,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J74"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -992,270 +992,6 @@
       <c r="J10" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B46" s="1"/>
-      <c r="I46" s="1"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B61" s="1"/>
-      <c r="I61" s="1"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B74" s="1"/>
-      <c r="I74" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/_Out/Server/NFDataCfg/Excel_Struct/Guild.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Guild.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="60">
   <si>
     <t>Id</t>
   </si>
@@ -241,6 +241,18 @@
   <si>
     <t>GuildBoss</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工会ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuilID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -654,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -991,6 +1003,38 @@
       </c>
       <c r="J10" s="3" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/_Out/Server/NFDataCfg/Excel_Struct/Guild.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Guild.xlsx
@@ -1,31 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NF\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Struct\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460"/>
+    <workbookView windowWidth="19560" windowHeight="8460" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
-    <sheet name="Record_GuildBoss" sheetId="15" r:id="rId2"/>
-    <sheet name="Record_GuildMemberList" sheetId="4" r:id="rId3"/>
-    <sheet name="Record_GuildEvent" sheetId="12" r:id="rId4"/>
-    <sheet name="Record_GuildHouse" sheetId="13" r:id="rId5"/>
-    <sheet name="Record_Skill" sheetId="14" r:id="rId6"/>
-    <sheet name="Component" sheetId="8" r:id="rId7"/>
+    <sheet name="Record_GuildBoss" sheetId="2" r:id="rId2"/>
+    <sheet name="Record_GuildMemberList" sheetId="3" r:id="rId3"/>
+    <sheet name="Record_GuildEvent" sheetId="4" r:id="rId4"/>
+    <sheet name="Record_GuildHouse" sheetId="5" r:id="rId5"/>
+    <sheet name="Record_Skill" sheetId="6" r:id="rId6"/>
+    <sheet name="Component" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
   <si>
     <t>Id</t>
   </si>
@@ -57,16 +52,76 @@
     <t>Desc</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
     <t>Friend</t>
   </si>
   <si>
+    <t>工会名</t>
+  </si>
+  <si>
+    <t>PresidentID</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>会长ID</t>
+  </si>
+  <si>
+    <t>PresidentName</t>
+  </si>
+  <si>
+    <t>会长名</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
-    <t>object</t>
+    <t>公会排名</t>
+  </si>
+  <si>
+    <t>GuildAD</t>
+  </si>
+  <si>
+    <t>工会公告</t>
+  </si>
+  <si>
+    <t>GuildDesc</t>
+  </si>
+  <si>
+    <t>工会描述</t>
+  </si>
+  <si>
+    <t>GuildMoney</t>
+  </si>
+  <si>
+    <t>工会财富</t>
+  </si>
+  <si>
+    <t>GuildLevel</t>
+  </si>
+  <si>
+    <t>工会等级</t>
+  </si>
+  <si>
+    <t>GuildContinueDay</t>
+  </si>
+  <si>
+    <t>工会霸占排行榜天数</t>
+  </si>
+  <si>
+    <t>GuilID</t>
+  </si>
+  <si>
+    <t>工会ID</t>
   </si>
   <si>
     <t>Row</t>
@@ -78,116 +133,46 @@
     <t>GUID</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>Enable</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>lua</t>
-  </si>
-  <si>
-    <t>测试组件</t>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>Donation</t>
+  </si>
+  <si>
+    <t>VIP</t>
+  </si>
+  <si>
+    <t>Offline</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>GuildBoss</t>
+  </si>
+  <si>
+    <t>guild</t>
+  </si>
+  <si>
+    <t>Receive</t>
+  </si>
+  <si>
+    <t>Title</t>
   </si>
   <si>
     <t>GuildMemberList</t>
   </si>
   <si>
-    <t>guild</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Job</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Donation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Offline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Power</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工会名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会长名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PresidentID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PresidentName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>object</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会长ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公会排名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工会公告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GuildDesc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工会描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GuildAD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>Guild</t>
     </r>
     <r>
@@ -195,71 +180,44 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Event</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>GuildHouse</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>GuildSkill</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GuildMoney</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工会财富</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GuildLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工会等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GuildContinueDay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工会霸占排行榜天数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GuildBoss</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>工会ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>object</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GuilID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Enable</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>lua</t>
+  </si>
+  <si>
+    <t>测试组件</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -267,21 +225,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -302,8 +253,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -314,26 +280,21 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -632,7 +593,6 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -665,14 +625,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="23.875" customWidth="1"/>
     <col min="2" max="2" width="8.25" customWidth="1"/>
@@ -685,7 +646,7 @@
     <col min="10" max="10" width="81" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -717,300 +678,300 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="b">
-        <v>1</v>
-      </c>
-      <c r="D10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -1031,35 +992,35 @@
         <v>0</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="23.125" customWidth="1"/>
     <col min="2" max="2" width="11.875" customWidth="1"/>
@@ -1076,15 +1037,15 @@
     <col min="18" max="19" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1111,33 +1072,33 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="N1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="O1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="P1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="Q1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="S1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>56</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -1164,63 +1125,65 @@
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" t="s">
-        <v>10</v>
-      </c>
       <c r="N2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="O2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="P2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Q2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="R2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="S2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576">
+      <formula1>"int,string,float,object"</formula1>
+    </dataValidation>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576"/>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
-      <formula1>"int,string,float,object"</formula1>
-    </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576"/>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="23.125" customWidth="1"/>
     <col min="2" max="2" width="11.875" customWidth="1"/>
@@ -1232,20 +1195,20 @@
     <col min="11" max="11" width="10.125" customWidth="1"/>
     <col min="13" max="13" width="12.75" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
-    <col min="16" max="16" width="16.5" customWidth="1"/>
-    <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="18" max="20" width="16.5" customWidth="1"/>
+    <col min="16" max="17" width="16.5" customWidth="1"/>
+    <col min="18" max="18" width="14" customWidth="1"/>
+    <col min="19" max="20" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1272,45 +1235,45 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="N1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="O1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="P1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="Q1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="R1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="S1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+      <c r="T1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B2">
         <v>50</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -1331,71 +1294,71 @@
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" t="s">
-        <v>10</v>
-      </c>
       <c r="N2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="O2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="P2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Q2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="R2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="S2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="T2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="U2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576">
+      <formula1>"int,string,float,object"</formula1>
+    </dataValidation>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576"/>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
-      <formula1>"int,string,float,object"</formula1>
-    </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576"/>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="A1:XFD1048576"/>
+      <selection activeCell="E37" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="23.125" customWidth="1"/>
     <col min="2" max="2" width="11.875" customWidth="1"/>
@@ -1412,15 +1375,15 @@
     <col min="18" max="19" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1447,33 +1410,33 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="N1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="O1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="P1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="Q1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="S1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -1500,64 +1463,65 @@
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" t="s">
-        <v>10</v>
-      </c>
       <c r="N2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="O2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="P2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Q2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="R2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="S2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576"/>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="A1:XFD1048576"/>
+      <selection activeCell="I27" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="23.125" customWidth="1"/>
     <col min="2" max="2" width="11.875" customWidth="1"/>
@@ -1574,15 +1538,15 @@
     <col min="18" max="19" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1609,33 +1573,33 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="N1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="O1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="P1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="Q1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="S1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -1662,64 +1626,65 @@
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" t="s">
-        <v>10</v>
-      </c>
       <c r="N2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="O2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="P2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Q2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="R2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="S2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576">
+      <formula1>"int,string,float,object"</formula1>
+    </dataValidation>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576"/>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
-      <formula1>"int,string,float,object"</formula1>
-    </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576"/>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H41" sqref="A1:XFD1048576"/>
+      <selection activeCell="H41" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="23.125" customWidth="1"/>
     <col min="2" max="2" width="11.875" customWidth="1"/>
@@ -1736,15 +1701,15 @@
     <col min="18" max="19" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1771,33 +1736,33 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="N1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="O1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="P1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="Q1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="S1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -1824,109 +1789,109 @@
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" t="s">
-        <v>10</v>
-      </c>
       <c r="N2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="O2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="P2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Q2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="R2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="S2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576"/>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="8.25" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>"lua,python,C#,js"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
-      <formula1>"lua,python,C#,js"</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/_Out/Server/NFDataCfg/Excel_Struct/Guild.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Guild.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NF\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Struct\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19560" windowHeight="8460" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
@@ -15,12 +20,15 @@
     <sheet name="Record_Skill" sheetId="6" r:id="rId6"/>
     <sheet name="Component" sheetId="7" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="65">
   <si>
     <t>Id</t>
   </si>
@@ -79,9 +87,6 @@
     <t>会长名</t>
   </si>
   <si>
-    <t>Rank</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -116,9 +121,6 @@
   </si>
   <si>
     <t>工会霸占排行榜天数</t>
-  </si>
-  <si>
-    <t>GuilID</t>
   </si>
   <si>
     <t>工会ID</t>
@@ -206,18 +208,56 @@
   <si>
     <t>测试组件</t>
   </si>
+  <si>
+    <t>GuilIDIcon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会头像</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuildMemeberCount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuildMemeberMaxCount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuildHonor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rank</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuilID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成员数量(增加个字段，不然遍历Record太麻烦)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成员最大数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会荣誉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -231,8 +271,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -253,27 +300,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -286,15 +318,51 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -593,6 +661,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -625,15 +694,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:J11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.875" customWidth="1"/>
     <col min="2" max="2" width="8.25" customWidth="1"/>
@@ -646,7 +714,7 @@
     <col min="10" max="10" width="81" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -678,7 +746,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -710,7 +778,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -742,7 +810,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -774,12 +842,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -803,12 +871,12 @@
         <v>12</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
@@ -835,12 +903,12 @@
         <v>12</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
@@ -867,15 +935,15 @@
         <v>12</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -899,15 +967,15 @@
         <v>12</v>
       </c>
       <c r="J8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
@@ -931,15 +999,15 @@
         <v>12</v>
       </c>
       <c r="J9" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -963,12 +1031,12 @@
         <v>12</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>15</v>
@@ -995,32 +1063,160 @@
         <v>12</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.125" customWidth="1"/>
     <col min="2" max="2" width="11.875" customWidth="1"/>
@@ -1037,15 +1233,15 @@
     <col min="18" max="19" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1072,33 +1268,33 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M1" t="s">
         <v>10</v>
       </c>
       <c r="N1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" t="s">
         <v>37</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>38</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>40</v>
       </c>
-      <c r="R1" t="s">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="S1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -1128,7 +1324,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L2" t="s">
         <v>15</v>
@@ -1137,53 +1333,52 @@
         <v>11</v>
       </c>
       <c r="N2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576"/>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576"/>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.125" customWidth="1"/>
     <col min="2" max="2" width="11.875" customWidth="1"/>
@@ -1200,15 +1395,15 @@
     <col min="19" max="20" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1235,39 +1430,39 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M1" t="s">
         <v>10</v>
       </c>
       <c r="N1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" t="s">
         <v>37</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" t="s">
         <v>38</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="R1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -1297,7 +1492,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L2" t="s">
         <v>15</v>
@@ -1306,59 +1501,59 @@
         <v>11</v>
       </c>
       <c r="N2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576"/>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576"/>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="E37" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.125" customWidth="1"/>
     <col min="2" max="2" width="11.875" customWidth="1"/>
@@ -1375,15 +1570,15 @@
     <col min="18" max="19" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1410,33 +1605,33 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M1" t="s">
         <v>10</v>
       </c>
       <c r="N1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" t="s">
         <v>37</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>38</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>40</v>
       </c>
-      <c r="R1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -1466,7 +1661,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L2" t="s">
         <v>15</v>
@@ -1475,53 +1670,52 @@
         <v>11</v>
       </c>
       <c r="N2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576"/>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576"/>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="I27" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.125" customWidth="1"/>
     <col min="2" max="2" width="11.875" customWidth="1"/>
@@ -1538,15 +1732,15 @@
     <col min="18" max="19" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1573,33 +1767,33 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M1" t="s">
         <v>10</v>
       </c>
       <c r="N1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" t="s">
         <v>37</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>38</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>40</v>
       </c>
-      <c r="R1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -1629,7 +1823,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L2" t="s">
         <v>15</v>
@@ -1638,53 +1832,52 @@
         <v>11</v>
       </c>
       <c r="N2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576"/>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576"/>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H41" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="H41" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.125" customWidth="1"/>
     <col min="2" max="2" width="11.875" customWidth="1"/>
@@ -1701,15 +1894,15 @@
     <col min="18" max="19" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1736,33 +1929,33 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M1" t="s">
         <v>10</v>
       </c>
       <c r="N1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" t="s">
         <v>37</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>38</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>40</v>
       </c>
-      <c r="R1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -1792,7 +1985,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L2" t="s">
         <v>15</v>
@@ -1801,88 +1994,88 @@
         <v>11</v>
       </c>
       <c r="N2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576"/>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576"/>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.25" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>55</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>"lua,python,C#,js"</formula1>
@@ -1891,7 +2084,7 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/_Out/Server/NFDataCfg/Excel_Struct/Guild.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Guild.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="66">
   <si>
     <t>Id</t>
   </si>
@@ -250,6 +250,21 @@
   </si>
   <si>
     <t>公会荣誉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ameID</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -305,7 +320,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -319,6 +334,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -697,7 +715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
@@ -1372,10 +1390,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1395,7 +1413,7 @@
     <col min="19" max="20" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1459,8 +1477,11 @@
       <c r="U1" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V1" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
@@ -1468,7 +1489,7 @@
         <v>50</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -1522,6 +1543,9 @@
         <v>19</v>
       </c>
       <c r="U2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/_Out/Server/NFDataCfg/Excel_Struct/Guild.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Guild.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="67">
   <si>
     <t>Id</t>
   </si>
@@ -265,6 +265,10 @@
       </rPr>
       <t>ameID</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Online</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1393,7 +1397,7 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1469,7 +1473,7 @@
         <v>38</v>
       </c>
       <c r="S1" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="T1" t="s">
         <v>40</v>
@@ -1492,7 +1496,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>

--- a/_Out/Server/NFDataCfg/Excel_Struct/Guild.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Guild.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
     <sheet name="Record_GuildBoss" sheetId="2" r:id="rId2"/>
     <sheet name="Record_GuildMemberList" sheetId="3" r:id="rId3"/>
-    <sheet name="Record_GuildEvent" sheetId="4" r:id="rId4"/>
-    <sheet name="Record_GuildHouse" sheetId="5" r:id="rId5"/>
-    <sheet name="Record_Skill" sheetId="6" r:id="rId6"/>
-    <sheet name="Component" sheetId="7" r:id="rId7"/>
+    <sheet name="Record_GuildAppyList" sheetId="9" r:id="rId4"/>
+    <sheet name="Record_GuildEvent" sheetId="4" r:id="rId5"/>
+    <sheet name="Record_GuildHouse" sheetId="5" r:id="rId6"/>
+    <sheet name="Record_Skill" sheetId="6" r:id="rId7"/>
+    <sheet name="Component" sheetId="7" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="94">
   <si>
     <t>Id</t>
   </si>
@@ -91,9 +92,6 @@
   </si>
   <si>
     <t>公会排名</t>
-  </si>
-  <si>
-    <t>GuildAD</t>
   </si>
   <si>
     <t>工会公告</t>
@@ -209,35 +207,11 @@
     <t>测试组件</t>
   </si>
   <si>
-    <t>GuilIDIcon</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>公会头像</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GuildMemeberCount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GuildMemeberMaxCount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GuildHonor</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Rank</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GuilID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -271,12 +245,196 @@
     <t>Online</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>GuildHonor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuildCreateTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuildCreateter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuildExp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ventID</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ontext</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tring</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuildAppyList</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Donation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>J</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>oinTime</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contribution</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllContribution</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuildStatus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会头像</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会创建时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会创始人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会经验</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会状态，正常状态，申请解散状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DismissTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请解散时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuildAD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecruitAD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募公告</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecruitLevel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募等级限制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutoRecruit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动招募</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuilID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuilIDIcon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuildMemeberCount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuildMemeberMaxCount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -297,6 +455,12 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -324,7 +488,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -341,6 +505,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -717,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -866,7 +1033,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>19</v>
@@ -897,8 +1064,8 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>21</v>
+      <c r="A6" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
@@ -925,12 +1092,12 @@
         <v>12</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
@@ -957,12 +1124,12 @@
         <v>12</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>19</v>
@@ -989,12 +1156,12 @@
         <v>12</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>19</v>
@@ -1021,12 +1188,12 @@
         <v>12</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>19</v>
@@ -1053,12 +1220,12 @@
         <v>12</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>15</v>
@@ -1085,15 +1252,15 @@
         <v>12</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>54</v>
+      <c r="A12" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -1116,16 +1283,16 @@
       <c r="I12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>56</v>
+      <c r="J12" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>57</v>
+      <c r="A13" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -1149,15 +1316,15 @@
         <v>12</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -1181,15 +1348,15 @@
         <v>12</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -1213,7 +1380,263 @@
         <v>12</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1235,7 +1658,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1260,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
         <v>32</v>
-      </c>
-      <c r="C1" t="s">
-        <v>33</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1290,33 +1713,33 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M1" t="s">
         <v>10</v>
       </c>
       <c r="N1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" t="s">
         <v>35</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>36</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>38</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>39</v>
-      </c>
-      <c r="S1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -1346,7 +1769,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L2" t="s">
         <v>15</v>
@@ -1394,10 +1817,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1417,15 +1840,15 @@
     <col min="19" max="20" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
         <v>32</v>
-      </c>
-      <c r="C1" t="s">
-        <v>33</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1452,48 +1875,57 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M1" t="s">
         <v>10</v>
       </c>
       <c r="N1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" t="s">
         <v>35</v>
       </c>
-      <c r="O1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="P1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="R1" t="s">
-        <v>38</v>
-      </c>
-      <c r="S1" t="s">
-        <v>66</v>
-      </c>
-      <c r="T1" t="s">
-        <v>40</v>
-      </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="B2">
         <v>50</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -1517,7 +1949,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L2" t="s">
         <v>15</v>
@@ -1550,6 +1982,15 @@
         <v>19</v>
       </c>
       <c r="V2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W2" t="s">
+        <v>19</v>
+      </c>
+      <c r="X2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1575,10 +2016,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="A1:XFD1048576"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1595,18 +2036,18 @@
     <col min="14" max="14" width="14" customWidth="1"/>
     <col min="16" max="16" width="16.5" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="18" max="19" width="16.5" customWidth="1"/>
+    <col min="18" max="18" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
         <v>32</v>
-      </c>
-      <c r="C1" t="s">
-        <v>33</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1633,42 +2074,39 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M1" t="s">
         <v>10</v>
       </c>
       <c r="N1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" t="s">
         <v>35</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>36</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>37</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>38</v>
       </c>
       <c r="R1" t="s">
         <v>39</v>
       </c>
-      <c r="S1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>46</v>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="B2">
         <v>50</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -1689,7 +2127,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L2" t="s">
         <v>15</v>
@@ -1712,8 +2150,184 @@
       <c r="R2" t="s">
         <v>19</v>
       </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <dataValidations count="4">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
+      <formula1>"int,string,float,object"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="23.125" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="11" max="11" width="10.125" customWidth="1"/>
+    <col min="20" max="20" width="12.75" customWidth="1"/>
+    <col min="21" max="21" width="14" customWidth="1"/>
+    <col min="23" max="23" width="16.5" customWidth="1"/>
+    <col min="24" max="24" width="14" customWidth="1"/>
+    <col min="25" max="26" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O2" t="s">
+        <v>93</v>
+      </c>
+      <c r="P2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>93</v>
+      </c>
+      <c r="R2" t="s">
+        <v>93</v>
+      </c>
       <c r="S2" t="s">
-        <v>19</v>
+        <v>93</v>
+      </c>
+      <c r="T2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1722,10 +2336,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:O1048576 Q1:S1048576 P1 P3:P1048576">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="T1 T3:T1048576"/>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
       <formula1>0</formula1>
     </dataValidation>
@@ -1735,7 +2349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
@@ -1765,10 +2379,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
         <v>32</v>
-      </c>
-      <c r="C1" t="s">
-        <v>33</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1795,33 +2409,33 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M1" t="s">
         <v>10</v>
       </c>
       <c r="N1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" t="s">
         <v>35</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>36</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>38</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>39</v>
-      </c>
-      <c r="S1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -1851,7 +2465,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L2" t="s">
         <v>15</v>
@@ -1897,7 +2511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
@@ -1927,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
         <v>32</v>
-      </c>
-      <c r="C1" t="s">
-        <v>33</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1957,33 +2571,33 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M1" t="s">
         <v>10</v>
       </c>
       <c r="N1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" t="s">
         <v>35</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>36</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>38</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>39</v>
-      </c>
-      <c r="S1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -2013,7 +2627,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L2" t="s">
         <v>15</v>
@@ -2059,7 +2673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -2079,10 +2693,10 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
         <v>49</v>
-      </c>
-      <c r="C1" t="s">
-        <v>50</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
@@ -2090,16 +2704,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/_Out/Server/NFDataCfg/Excel_Struct/Guild.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Guild.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NF\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Struct\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
@@ -29,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="100">
   <si>
     <t>Id</t>
   </si>
@@ -427,6 +422,30 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EctypServer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EctypID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EctypIDGroup</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工会副本所在的服</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工会副本ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工会副本所在的曾</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -466,12 +485,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -488,7 +513,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -508,6 +533,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -884,10 +918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1639,11 +1673,107 @@
         <v>87</v>
       </c>
     </row>
+    <row r="24" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0</v>
+      </c>
+      <c r="H24" s="9">
+        <v>0</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0</v>
+      </c>
+      <c r="H25" s="9">
+        <v>0</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0</v>
+      </c>
+      <c r="H26" s="9">
+        <v>0</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F23 F27:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2173,7 +2303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>

--- a/_Out/Server/NFDataCfg/Excel_Struct/Guild.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Guild.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\tangyu1018\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Struct\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
@@ -193,9 +198,6 @@
     <t>Enable</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>lua</t>
   </si>
   <si>
@@ -446,6 +448,10 @@
   </si>
   <si>
     <t>工会副本所在的曾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestModule</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -920,7 +926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+    <sheetView topLeftCell="E4" workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
@@ -1067,7 +1073,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>19</v>
@@ -1099,7 +1105,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
@@ -1259,7 +1265,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>15</v>
@@ -1291,10 +1297,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -1318,15 +1324,15 @@
         <v>12</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -1350,15 +1356,15 @@
         <v>12</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -1382,15 +1388,15 @@
         <v>12</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -1414,15 +1420,15 @@
         <v>12</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
@@ -1446,15 +1452,15 @@
         <v>12</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
@@ -1478,15 +1484,15 @@
         <v>12</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -1510,15 +1516,15 @@
         <v>12</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -1542,44 +1548,44 @@
         <v>12</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" t="b">
-        <v>1</v>
-      </c>
-      <c r="D20" t="b">
-        <v>1</v>
-      </c>
-      <c r="E20" t="b">
-        <v>1</v>
-      </c>
-      <c r="F20" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>11</v>
@@ -1606,44 +1612,44 @@
         <v>12</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" t="b">
-        <v>1</v>
-      </c>
-      <c r="D22" t="b">
-        <v>1</v>
-      </c>
-      <c r="E22" t="b">
-        <v>1</v>
-      </c>
-      <c r="F22" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>11</v>
@@ -1670,15 +1676,15 @@
         <v>12</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="9" t="b">
         <v>0</v>
@@ -1702,15 +1708,15 @@
         <v>12</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25" s="9" t="b">
         <v>0</v>
@@ -1734,15 +1740,15 @@
         <v>12</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="9" t="b">
         <v>0</v>
@@ -1766,7 +1772,7 @@
         <v>12</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2017,7 +2023,7 @@
         <v>35</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q1" t="s">
         <v>42</v>
@@ -2026,7 +2032,7 @@
         <v>37</v>
       </c>
       <c r="S1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T1" t="s">
         <v>39</v>
@@ -2035,16 +2041,16 @@
         <v>43</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="X1" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.15">
@@ -2227,7 +2233,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -2383,13 +2389,13 @@
         <v>39</v>
       </c>
       <c r="T1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="U1" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.15">
@@ -2430,25 +2436,25 @@
         <v>15</v>
       </c>
       <c r="M2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N2" t="s">
         <v>92</v>
       </c>
-      <c r="N2" t="s">
-        <v>93</v>
-      </c>
       <c r="O2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P2" t="s">
         <v>19</v>
       </c>
       <c r="Q2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T2" t="s">
         <v>19</v>
@@ -2457,7 +2463,7 @@
         <v>19</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2807,8 +2813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2834,16 +2840,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/_Out/Server/NFDataCfg/Excel_Struct/Guild.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Guild.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
-    <sheet name="Record_GuildBoss" sheetId="2" r:id="rId2"/>
+    <sheet name="Record" sheetId="2" r:id="rId2"/>
     <sheet name="Component" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
@@ -417,11 +417,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -430,103 +430,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -541,7 +445,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -554,9 +480,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -572,15 +558,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -601,19 +595,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,163 +685,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,11 +789,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -830,21 +845,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -854,17 +854,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -883,166 +886,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1052,19 +1046,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
@@ -1141,7 +1129,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
@@ -1634,7 +1621,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1666,7 +1653,7 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1826,7 +1813,7 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1858,7 +1845,7 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1885,12 +1872,12 @@
       <c r="I12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1917,12 +1904,12 @@
       <c r="I13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1949,12 +1936,12 @@
       <c r="I14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1981,12 +1968,12 @@
       <c r="I15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2013,12 +2000,12 @@
       <c r="I16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -2045,12 +2032,12 @@
       <c r="I17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -2077,12 +2064,12 @@
       <c r="I18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -2109,12 +2096,12 @@
       <c r="I19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2141,12 +2128,12 @@
       <c r="I20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -2173,12 +2160,12 @@
       <c r="I21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J21" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -2205,12 +2192,12 @@
       <c r="I22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -2237,103 +2224,103 @@
       <c r="I23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="J23" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" s="6" customFormat="1" spans="1:10">
-      <c r="A24" s="7" t="s">
+    <row r="24" s="4" customFormat="1" spans="1:10">
+      <c r="A24" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D24" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E24" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F24" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G24" s="6">
-        <v>0</v>
-      </c>
-      <c r="H24" s="6">
-        <v>0</v>
-      </c>
-      <c r="I24" s="8" t="s">
+      <c r="B24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J24" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="25" s="6" customFormat="1" spans="1:10">
-      <c r="A25" s="7" t="s">
+    <row r="25" s="4" customFormat="1" spans="1:10">
+      <c r="A25" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D25" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E25" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F25" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G25" s="6">
-        <v>0</v>
-      </c>
-      <c r="H25" s="6">
-        <v>0</v>
-      </c>
-      <c r="I25" s="8" t="s">
+      <c r="B25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="J25" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="26" s="6" customFormat="1" spans="1:10">
-      <c r="A26" s="7" t="s">
+    <row r="26" s="4" customFormat="1" spans="1:10">
+      <c r="A26" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D26" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E26" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F26" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G26" s="6">
-        <v>0</v>
-      </c>
-      <c r="H26" s="6">
-        <v>0</v>
-      </c>
-      <c r="I26" s="8" t="s">
+      <c r="B26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
+      <c r="I26" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="J26" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2507,7 +2494,7 @@
       <c r="O3" t="s">
         <v>68</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="3" t="s">
         <v>69</v>
       </c>
       <c r="Q3" t="s">
@@ -2522,19 +2509,19 @@
       <c r="T3" t="s">
         <v>72</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="U3" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="V3" s="5" t="s">
+      <c r="V3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="W3" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="X3" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Y3" s="3" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2639,7 +2626,7 @@
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:18">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B6">
@@ -2719,13 +2706,13 @@
       <c r="S7" t="s">
         <v>72</v>
       </c>
-      <c r="T7" s="4" t="s">
+      <c r="T7" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="U7" s="4" t="s">
+      <c r="U7" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="V7" s="4" t="s">
+      <c r="V7" s="3" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2793,7 +2780,7 @@
       <c r="U8" t="s">
         <v>20</v>
       </c>
-      <c r="V8" s="4" t="s">
+      <c r="V8" s="3" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2974,11 +2961,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="P7 L1:L2 L3:L4 L5:L6 L9:L10 L11:L12 L13:L1048576 L7:O8 Q7:S8">
+      <formula1>"int,string,float,object"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G4 G6 G8 G10 G12 G13:G1048576 D1:F2 D3:F4 D5:F6 D7:F8 D9:F10 D13:F1048576 D11:F12">
       <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="P7 L1:L2 L3:L4 L5:L6 L9:L10 L11:L12 L13:L1048576 L7:O8 Q7:S8">
-      <formula1>"int,string,float,object"</formula1>
     </dataValidation>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="T7 M1:M2 M3:M4 M5:M6 M9:M10 M11:M12 M13:M1048576"/>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C2 B3:C4 B5:C6 B7:C8 B9:C10 B13:C1048576 B11:C12">
@@ -3037,11 +3024,11 @@
     </row>
   </sheetData>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>"lua,python,C#,js"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
-      <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_Out/Server/NFDataCfg/Excel_Struct/Guild.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Guild.xlsx
@@ -416,10 +416,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -436,24 +436,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -474,14 +458,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -489,15 +466,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -520,6 +496,69 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -534,47 +573,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -595,13 +595,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,19 +691,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,145 +775,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -786,62 +786,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -863,11 +807,47 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -886,6 +866,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -894,10 +894,10 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -906,133 +906,133 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2343,7 +2343,7 @@
   <dimension ref="A1:Y12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2955,22 +2955,22 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="1:12">
+  <conditionalFormatting sqref="1:1048576">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
+      <formula>MOD(ROW()+1,4)-2&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="P7 L1:L2 L3:L4 L5:L6 L9:L10 L11:L12 L13:L1048576 L7:O8 Q7:S8">
-      <formula1>"int,string,float,object"</formula1>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C2 B3:C4 B5:C6 B7:C8 B9:C10 B13:C1048576 B11:C12">
+      <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G4 G6 G8 G10 G12 G13:G1048576 D1:F2 D3:F4 D5:F6 D7:F8 D9:F10 D13:F1048576 D11:F12">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="P7 L1:L2 L3:L4 L5:L6 L9:L10 L11:L12 L13:L1048576 L7:O8 Q7:S8">
+      <formula1>"int,string,float,object"</formula1>
+    </dataValidation>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="T7 M1:M2 M3:M4 M5:M6 M9:M10 M11:M12 M13:M1048576"/>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C2 B3:C4 B5:C6 B7:C8 B9:C10 B13:C1048576 B11:C12">
-      <formula1>0</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3024,11 +3024,11 @@
     </row>
   </sheetData>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>"lua,python,C#,js"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
       <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
-      <formula1>"lua,python,C#,js"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_Out/Server/NFDataCfg/Excel_Struct/Guild.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Guild.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <t>Save</t>
   </si>
   <si>
-    <t>View</t>
+    <t>Cache</t>
   </si>
   <si>
     <t>Index</t>
@@ -418,8 +418,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -431,34 +431,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -473,24 +445,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -502,41 +473,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -557,11 +502,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -574,11 +566,19 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -595,187 +595,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -786,39 +786,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -838,16 +805,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -869,11 +836,44 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -891,148 +891,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1475,8 +1475,8 @@
   <sheetPr/>
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1541,7 +1541,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1605,7 +1605,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1637,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1701,7 +1701,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1797,7 +1797,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1829,7 +1829,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1893,7 +1893,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1925,7 +1925,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1957,7 +1957,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1989,7 +1989,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -2021,7 +2021,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2085,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2117,7 +2117,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2244,7 +2244,7 @@
       <c r="E24" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F24" s="4" t="b">
+      <c r="F24" t="b">
         <v>0</v>
       </c>
       <c r="G24" s="4">
@@ -2276,7 +2276,7 @@
       <c r="E25" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F25" s="4" t="b">
+      <c r="F25" t="b">
         <v>0</v>
       </c>
       <c r="G25" s="4">
@@ -2308,7 +2308,7 @@
       <c r="E26" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F26" s="4" t="b">
+      <c r="F26" t="b">
         <v>0</v>
       </c>
       <c r="G26" s="4">
@@ -2327,7 +2327,7 @@
   </sheetData>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F23 F27:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F26 F27:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2342,7 +2342,7 @@
   <sheetPr/>
   <dimension ref="A1:Y12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
@@ -2961,9 +2961,6 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C2 B3:C4 B5:C6 B7:C8 B9:C10 B13:C1048576 B11:C12">
-      <formula1>0</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G4 G6 G8 G10 G12 G13:G1048576 D1:F2 D3:F4 D5:F6 D7:F8 D9:F10 D13:F1048576 D11:F12">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
@@ -2971,6 +2968,9 @@
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="T7 M1:M2 M3:M4 M5:M6 M9:M10 M11:M12 M13:M1048576"/>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C2 B3:C4 B5:C6 B7:C8 B9:C10 B13:C1048576 B11:C12">
+      <formula1>0</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/_Out/Server/NFDataCfg/Excel_Struct/Guild.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Guild.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LVSHENG.HUANG\Desktop\NoahGameFrame\NFEngine\_Out\Server\NFDataCfg\Excel_Struct\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="98">
   <si>
     <t>Id</t>
   </si>
@@ -410,18 +415,20 @@
   <si>
     <t>测试组件</t>
   </si>
+  <si>
+    <t>KingWarResource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得的战役资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -429,158 +436,25 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -593,194 +467,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -788,255 +476,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1058,57 +504,12 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1140,6 +541,14 @@
       <tableStyleElement type="headerRow" dxfId="1"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1471,15 +880,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:J26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F26"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.875" customWidth="1"/>
     <col min="2" max="2" width="8.25" customWidth="1"/>
@@ -1492,7 +900,7 @@
     <col min="10" max="10" width="81" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1524,7 +932,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1556,7 +964,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1588,7 +996,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1620,7 +1028,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -1652,7 +1060,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -1684,7 +1092,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -1716,7 +1124,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -1748,7 +1156,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
@@ -1780,7 +1188,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
@@ -1812,7 +1220,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
@@ -1844,7 +1252,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
@@ -1876,7 +1284,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
@@ -1908,7 +1316,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>38</v>
       </c>
@@ -1940,7 +1348,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>40</v>
       </c>
@@ -1972,7 +1380,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>42</v>
       </c>
@@ -2004,7 +1412,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>44</v>
       </c>
@@ -2036,7 +1444,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>46</v>
       </c>
@@ -2068,7 +1476,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>48</v>
       </c>
@@ -2100,7 +1508,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>50</v>
       </c>
@@ -2132,7 +1540,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>52</v>
       </c>
@@ -2164,7 +1572,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>54</v>
       </c>
@@ -2196,157 +1604,189 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C23" t="b">
-        <v>1</v>
-      </c>
-      <c r="D23" t="b">
-        <v>1</v>
-      </c>
-      <c r="E23" t="b">
-        <v>1</v>
-      </c>
-      <c r="F23" t="b">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="2" t="s">
+      <c r="C24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" s="4" customFormat="1" spans="1:10">
-      <c r="A24" s="5" t="s">
+    <row r="25" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D24" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E24" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G24" s="4">
-        <v>0</v>
-      </c>
-      <c r="H24" s="4">
-        <v>0</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="5" t="s">
+      <c r="B25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="25" s="4" customFormat="1" spans="1:10">
-      <c r="A25" s="5" t="s">
+    <row r="26" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D25" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E25" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F25" t="b">
-        <v>0</v>
-      </c>
-      <c r="G25" s="4">
-        <v>0</v>
-      </c>
-      <c r="H25" s="4">
-        <v>0</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J25" s="5" t="s">
+      <c r="B26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="26" s="4" customFormat="1" spans="1:10">
-      <c r="A26" s="5" t="s">
+    <row r="27" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D26" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E26" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F26" t="b">
-        <v>0</v>
-      </c>
-      <c r="G26" s="4">
-        <v>0</v>
-      </c>
-      <c r="H26" s="4">
-        <v>0</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J26" s="5" t="s">
+      <c r="B27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" s="5" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F26 F27:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.125" customWidth="1"/>
     <col min="2" max="2" width="11.875" customWidth="1"/>
@@ -2363,7 +1803,7 @@
     <col min="18" max="19" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2422,7 +1862,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>73</v>
       </c>
@@ -2481,7 +1921,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="12:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
       <c r="L3" t="s">
         <v>66</v>
       </c>
@@ -2525,7 +1965,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>82</v>
       </c>
@@ -2602,7 +2042,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="12:18">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
       <c r="L5" t="s">
         <v>66</v>
       </c>
@@ -2625,7 +2065,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="1:18">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>83</v>
       </c>
@@ -2681,7 +2121,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="12:22">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
       <c r="L7" t="s">
         <v>66</v>
       </c>
@@ -2716,7 +2156,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>87</v>
       </c>
@@ -2784,7 +2224,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="12:19">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
       <c r="L9" t="s">
         <v>66</v>
       </c>
@@ -2810,7 +2250,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>89</v>
       </c>
@@ -2869,7 +2309,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="12:19">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
       <c r="L11" t="s">
         <v>66</v>
       </c>
@@ -2895,7 +2335,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>90</v>
       </c>
@@ -2955,7 +2395,8 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="1:1048576">
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="A1:XFD1048576">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>MOD(ROW()+1,4)-2&lt;0</formula>
     </cfRule>
@@ -2972,29 +2413,27 @@
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.25" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -3008,7 +2447,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>93</v>
       </c>
@@ -3023,6 +2462,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>"lua,python,C#,js"</formula1>
@@ -3031,7 +2471,7 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
